--- a/biology/Botanique/Gamay_de_Bouze/Gamay_de_Bouze.xlsx
+++ b/biology/Botanique/Gamay_de_Bouze/Gamay_de_Bouze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le gamay de bouze N est un cépage teinturier français.
@@ -512,7 +524,9 @@
           <t>Origine et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gamay teinturier de Bouze est une mutation observée par Caumartin en 1832 sur une souche de gamay noir à jus blanc. Il est originaire du village bourguignon de Bouze-lès-Beaune (Côte-d'Or).
 Synonymes : rouge de Bouze (côte d'Or), rouge de Couchey (côte d'Or), petit mourot.
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Grappes petites, cylindriques, parfois ailées.
 Baies ovoïdes, noir bleuté, à jus rosé</t>
@@ -575,7 +591,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Débourrement précoce
 Très sensible à la pourriture grise</t>
